--- a/Tester Results/SIGNIFICANT_TOP20_SPLIT.xlsx
+++ b/Tester Results/SIGNIFICANT_TOP20_SPLIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,14 +473,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>381.5</v>
+        <v>746.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003309579419531099</v>
+        <v>0.01248872609769634</v>
       </c>
     </row>
     <row r="3">
@@ -491,19 +491,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>354.5</v>
+        <v>1342</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003618647162627166</v>
+        <v>0.01235020491712718</v>
       </c>
     </row>
     <row r="4">
@@ -514,19 +514,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>833</v>
+        <v>1332</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04576783585618472</v>
+        <v>0.01541146463337889</v>
       </c>
     </row>
     <row r="5">
@@ -537,30 +537,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>839</v>
+        <v>1320</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03916993919656298</v>
+        <v>0.0199446850346314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -569,21 +569,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>959</v>
+        <v>1378.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00280302378995304</v>
+        <v>0.04171317940343678</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -592,21 +592,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>947</v>
+        <v>1385</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004211149108151539</v>
+        <v>0.03705856108034603</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -615,21 +615,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>945</v>
+        <v>1473</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00450034269310209</v>
+        <v>0.006026158175578555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -638,108 +638,108 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>282</v>
+        <v>801</v>
       </c>
       <c r="E9" t="n">
-        <v>3.513962043189032e-05</v>
+        <v>0.02170445140195236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>414.5</v>
+        <v>1375.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007559970336587462</v>
+        <v>0.01217464933483381</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>898.5</v>
+        <v>1366</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006795668520630508</v>
+        <v>0.01497304391439934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>894</v>
+        <v>1333</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00786471608941328</v>
+        <v>0.02954760560044102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>885</v>
+        <v>739</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01045554675832951</v>
+        <v>0.01465411529372505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -749,20 +749,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>904</v>
+        <v>1302.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005673378969279482</v>
+        <v>0.01124212803575645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -772,14 +772,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>937</v>
+        <v>1275</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001788061142657725</v>
+        <v>0.02601338240813611</v>
       </c>
     </row>
     <row r="16">
@@ -790,19 +790,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>826</v>
+        <v>1268</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02284220143734341</v>
+        <v>0.03005095673124481</v>
       </c>
     </row>
     <row r="17">
@@ -813,111 +813,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>828</v>
+        <v>1263.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02154596577155127</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>389</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0099800429795172</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>926</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.02168335053511856</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>924</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0228880577186383</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>903</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.03943743211826794</v>
+        <v>0.03291778624052341</v>
       </c>
     </row>
   </sheetData>
